--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\palmo\OneDrive\Documents\GitHub\SEcube'structure'branch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE7FC0DD-1ED6-4A36-850C-2FB20C41AD67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3FB5F6-9B63-4C52-AAC5-80E0CB0591BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{18760C7E-6D15-4877-B866-7E3134B17E7A}"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="17304" windowHeight="8892" xr2:uid="{18760C7E-6D15-4877-B866-7E3134B17E7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -235,37 +235,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1655,7 +1625,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+      <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\palmo\OneDrive\Documents\GitHub\SEcube'structure'branch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3FB5F6-9B63-4C52-AAC5-80E0CB0591BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BC26E1-CF28-43A3-98E7-10E29056A56A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="17304" windowHeight="8892" xr2:uid="{18760C7E-6D15-4877-B866-7E3134B17E7A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{18760C7E-6D15-4877-B866-7E3134B17E7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -1288,16 +1288,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1622,10 +1622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC53D80-4D75-4A12-B3B9-93A0E2C0128B}">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1836,77 +1836,197 @@
         <v>804</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <f>D14*100/1000</f>
+        <v>90.8</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ref="E24:L24" si="0">E14*100/1000</f>
+        <v>90.1</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>94.8</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>93.2</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>94.9</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>93.1</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>94.8</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="0"/>
+        <v>96.1</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>95.3</v>
+      </c>
+      <c r="M24">
+        <f>AVERAGE(D24:L24)</f>
+        <v>93.677777777777763</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D25">
+        <f t="shared" ref="D25:L26" si="1">D15*100/1000</f>
+        <v>88.1</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>89.3</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>89.8</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>90.4</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>90.8</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>92.6</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>90.5</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>90.2</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="1"/>
+        <v>89.3</v>
+      </c>
+      <c r="M25">
+        <f t="shared" ref="M25:M26" si="2">AVERAGE(D25:L25)</f>
+        <v>90.111111111111114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>74.5</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>75.400000000000006</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>81.7</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>77.5</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>78.400000000000006</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>78.5</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>81.3</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>83.3</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="1"/>
+        <v>80.400000000000006</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="2"/>
+        <v>78.999999999999986</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>29</v>
       </c>
